--- a/data/outputs/management_altmetric/55.xlsx
+++ b/data/outputs/management_altmetric/55.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE50"/>
+  <dimension ref="A1:CF50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1033,6 +1038,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1287,6 +1295,9 @@
       </c>
       <c r="CE3" t="n">
         <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1529,6 +1540,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1780,6 +1794,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2030,6 +2047,9 @@
       </c>
       <c r="CE6" t="n">
         <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -2260,6 +2280,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2519,6 +2542,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2766,6 +2792,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>8.282</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3011,6 +3040,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3269,6 +3301,9 @@
       </c>
       <c r="CE11" t="n">
         <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="12">
@@ -3513,6 +3548,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3756,6 +3794,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4003,6 +4044,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4246,6 +4290,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4481,6 +4528,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>4.35</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4734,6 +4784,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4993,6 +5046,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>37.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5243,6 +5299,9 @@
       </c>
       <c r="CE19" t="n">
         <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="20">
@@ -5485,6 +5544,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5738,6 +5800,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5989,6 +6054,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6236,6 +6304,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6487,6 +6558,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6736,6 +6810,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6981,6 +7058,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7230,6 +7310,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7481,6 +7564,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7726,6 +7812,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7977,6 +8066,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8234,6 +8326,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8491,6 +8586,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8738,6 +8836,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8984,6 +9085,9 @@
       </c>
       <c r="CE34" t="n">
         <v>0</v>
+      </c>
+      <c r="CF34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -9230,6 +9334,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9480,6 +9587,9 @@
       </c>
       <c r="CE36" t="n">
         <v>0</v>
+      </c>
+      <c r="CF36" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="37">
@@ -9723,6 +9833,9 @@
       </c>
       <c r="CE37" t="n">
         <v>0</v>
+      </c>
+      <c r="CF37" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="38">
@@ -9955,6 +10068,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10206,6 +10322,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10461,6 +10580,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>12.75</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10710,6 +10832,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10959,6 +11084,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11206,6 +11334,9 @@
         <v>0</v>
       </c>
       <c r="CE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11453,6 +11584,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11703,6 +11837,9 @@
       </c>
       <c r="CE45" t="n">
         <v>1</v>
+      </c>
+      <c r="CF45" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="46">
@@ -11951,6 +12088,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12200,6 +12340,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12457,6 +12600,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12708,6 +12854,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12961,6 +13110,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
